--- a/code/data_process/1.Multiple_interface_joint_calls/data/history/combined_file_splited_new_35.xlsx
+++ b/code/data_process/1.Multiple_interface_joint_calls/data/history/combined_file_splited_new_35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>gpt4o_label</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>key_text</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>non_key_text</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -481,9 +491,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>叮当，叮当，你有，呀，对，紧张不要这个，那个我的，不不不，怎么样加油成为你的小，</t>
         </is>
       </c>
     </row>
@@ -508,9 +524,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>们回头看回答世爱，这是，画课吗？就是表扬田小雨王健，表扬第一种，</t>
         </is>
       </c>
     </row>
@@ -535,9 +557,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>马上就能做好，这样才是非常棒的那说明他，知道什么是该做，什么是不该做，就好比李天宇到现在还没做好。李，还有你也批评坐下，随便吧。熊二女孩，</t>
         </is>
       </c>
     </row>
@@ -562,9 +590,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>表扬王雅丽一集，表扬刘静瑶，还有你叫什么名来着？对，还有下线对，</t>
         </is>
       </c>
     </row>
@@ -594,6 +628,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>你现在就读，华雅丽，田小宇，张博文边锦成。</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>表扬笑言，老师可以讨论，现在不要吵，每到吵，你现在就读，华雅丽，田小宇，张博文边锦成，</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -616,9 +660,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>吴尚红、刘静瑶，签署，刘瑞，范晓月，</t>
         </is>
       </c>
     </row>
@@ -643,9 +693,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>康城，豪圣女孩，</t>
         </is>
       </c>
     </row>
@@ -670,9 +726,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>谢谢。所以，就这100，把这一块来。</t>
         </is>
       </c>
     </row>
@@ -697,9 +759,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>蒋宇轩没有认真读书，</t>
         </is>
       </c>
     </row>
@@ -724,9 +792,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>跳跳学水过来。</t>
         </is>
       </c>
     </row>
@@ -751,9 +825,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>第二行，后来，</t>
         </is>
       </c>
     </row>
@@ -778,9 +858,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>下，你看我这首歌，身高，</t>
         </is>
       </c>
     </row>
@@ -805,9 +891,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>看看，今天交，</t>
         </is>
       </c>
     </row>
@@ -837,6 +929,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>给答李媛媛</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>李辉辉、赵，，</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -859,9 +961,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>你想要这个，200m，</t>
         </is>
       </c>
     </row>
@@ -886,9 +994,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>我建议，你这些，</t>
         </is>
       </c>
     </row>
@@ -913,9 +1027,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>换绿换这，第四组结论，第三行，四个会的陈晴、刘静、瑶、王、李晨曦，</t>
         </is>
       </c>
     </row>
@@ -945,6 +1065,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>你了解到什么知识写下来</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>？然后我该拷贝送拷贝送第一组，那是谁？在回头，你用下面是小组，同意下呗，课文本可以，我没有课文本怎么办？是你上次没教，你别问我自己在书包里找，我相信，</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -967,9 +1097,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>那人家是语文，也是语文课代表干什么？那，我还是钱，我也不知道在哪里，你都不知道在哪里，你在哪里，我能知道在哪里吗？可以，我不是，那个，</t>
         </is>
       </c>
     </row>
@@ -994,9 +1130,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>刘海燕，商业推一点，验证仪，生命，就不会，加油。</t>
         </is>
       </c>
     </row>
@@ -1021,9 +1163,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>你错了，你还干嘛？你还是挺不愿意的，你看这就叫好心，不得好报，知道吧？这样孩子就不要理他，你还告诉他他还很非常生气的，非常恼火的问他了，回去，人好，</t>
         </is>
       </c>
     </row>
@@ -1048,9 +1196,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>李博伟，谁回头看的谁回头看的不自己，</t>
         </is>
       </c>
     </row>
@@ -1075,9 +1229,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>地热夜热，夜热，因外，</t>
         </is>
       </c>
     </row>
@@ -1102,9 +1262,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>15，杨万里夜色，</t>
         </is>
       </c>
     </row>
@@ -1129,9 +1295,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>没关系，送战士，</t>
         </is>
       </c>
     </row>
@@ -1161,6 +1333,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>下一个，胡乱，谢谢啊</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1188,6 +1370,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>好，下一个，一个</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1210,9 +1402,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>项链，在学里，</t>
         </is>
       </c>
     </row>
@@ -1237,9 +1435,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>和一起结两本书，直接，</t>
         </is>
       </c>
     </row>
@@ -1264,9 +1468,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>还有人买，然后范的字写的很漂亮，</t>
         </is>
       </c>
     </row>
@@ -1291,9 +1501,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>瑞也好，检票，然后，天气，</t>
         </is>
       </c>
     </row>
@@ -1318,9 +1534,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>红的罪。你汉武汉有李光，没有课文本，但是拿着田字本，你书包里一个本子都没有啊，啊，或者像赵岩这样没有跟别的同学借一张纸，现在写回去再补到本人呢。那你就在这坐着呀，</t>
         </is>
       </c>
     </row>
@@ -1345,9 +1567,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>我要检我要在家务，我要检查内容太少了，竞争和禁毒，</t>
         </is>
       </c>
     </row>
@@ -1372,9 +1600,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>你谁你帮写个名？内容太小，都不知道你的是什么内容，连题目都没有，</t>
         </is>
       </c>
     </row>
@@ -1399,9 +1633,15 @@
           <t>{   "label": "NA",   "status": "NA",   "key_text": "NA" }</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>两项任务都已经完成了。接下来看你的纪律了啊，做的都没交，别人都是课本本都交了，你可以换书，你交了吗？</t>
         </is>
       </c>
     </row>
